--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1568630\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1326952\Desktop\Poole-Shedoole\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
   <si>
     <t>English 9</t>
   </si>
@@ -459,6 +459,51 @@
   </si>
   <si>
     <t>(sample) study hall</t>
+  </si>
+  <si>
+    <t>Students develop the ability to communicate about Personal and Family Life, School Life, Social Life, and Community Life using simple sentences containing basic language structure. This course counts towards the world languages course for the Advanced Studies Diploma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students learn to function in real-life situations using more complex language structures and a wider range of vocabulary. Explore themes of Home Life, Student Life, Leisure Time, and Vacation and Travel. </t>
+  </si>
+  <si>
+    <t>Students will learn to use simple sentence structures and basic language structures to discuss about Personal and Family Life, School Life, Social Life, and Community Life. They will develop their listening, speaking, reading, and writing skills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students continue to develop their skills in listening, speaking, reading, and writing, while learning how to function in real-life situations using more complex sentences and language structures. They will real material on familiar topics and produce short writing samples. </t>
+  </si>
+  <si>
+    <t>Students continue to develop their skills in listening, speaking, reading, and writing, while learning how to use more complex language structures on more abstract concepts. The themes of the class include Rights and Responsibilities, Future Plans and Choices, Teen Culture, Environment, and Humanities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students learn basic language structure and pronunciation in order to read simple Latin passages. The relationship of English to Latin is emphasized in vocabulary, word derivation, and meanings of prefixes and suffixes. Students also learn about the geography, history, government, and culture of the Roman Empire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students learn more vocabulary, more complex language structures and syntax so that they are able to read more challenging passages in Latin. Students continue to study Roman life and Rome’s contribution to our civilization. </t>
+  </si>
+  <si>
+    <t>Students develop and refine their reading skills, learn additional vocabulary, and learn more complex language structures and syntax. Through translation and interpretation, students gain a greater understanding of the foundation of Western government and civilization.</t>
+  </si>
+  <si>
+    <t>Topics include linear equations and inequalities, systems of linear equations, relations, functions, polynomials, and statistics. Emphasis is placed on making connections in algebra to geometry and statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This class goes beyond the scope of Algebra I. Students are expected to master algebraic mechanics and understand the underlying theory, as well as apply the concepts to real-world situations. Emphasis is placed on algebraic connections to arithmetic, geometry, and statistics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course emphasizes two- and three-dimensional reasoning skills, coordinate and transformational geometry, and the use of geometric models to solve problems. </t>
+  </si>
+  <si>
+    <t>Goes beyond the scope of Geometry. Heavily uses proofs to verify theorems. Students investigate non-Euclidean geometries and formal logic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics include function, polynomials, rational expressions, complex numbers, exponential and logarithmic equations, arithmetic and geometric sequences and series, and data analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students are expected to not only master algebraic mechanics but also to understand the underlying theory and to apply concepts to real-world situations in a meaningful way. Additional topics include matrices, infinite geometric sequences and series, permutations and combinations, and selected topics in discrete math. Emphasis is on modeling, logic, and interpretation of related graphs. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students learn how to code in Java, developing their skills in defining, writing, and running programs on a computer. Students will work with both mathematical and non-mathematical problems. </t>
   </si>
 </sst>
 </file>
@@ -511,13 +556,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -801,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -896,322 +944,391 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>77</v>
       </c>

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1326952\Desktop\Poole-Shedoole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1358894\Documents\GitHub\Poole-Shedoole\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
   <si>
     <t>English 9</t>
   </si>
@@ -504,6 +504,39 @@
   </si>
   <si>
     <t xml:space="preserve">Students learn how to code in Java, developing their skills in defining, writing, and running programs on a computer. Students will work with both mathematical and non-mathematical problems. </t>
+  </si>
+  <si>
+    <t>Students read and analyze a variety of literary and nonfiction texts, exploring the characteristics of different forms and the techniques authors use to achieve their intended purpose. Language study extends students’ vocabulary through learning about connotations, denotations, word origins, and structures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course deepens and advances the curriculum of English 9. This course isn’t just about reading more novels or completing more work. It dives deeper into the content and skills of the curriculum at a faster pace and appeals to students who are self-starters. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students explore computer concepts, apply logic procedures, and implement programming procedures with one or more languages, such as Visual Basic. Students use Graphical User Interfaces to develop interactive multimedia applications. In addition, HTML or JavaScript may be employed to create Web pages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This product-oriented course introduces the student to multimedia presentations, desktop publications, and web page creation. Hands-on activities are used as students develop advanced skills for creating desktop published, interactive multimedia, and Web-site projects. Students work with sophisticated hardware and software, applying skills to real-world projects. Internet research and copyright laws are emphasized. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students apply problem-solving skills to real-life situations through word processing, spreadsheets, databases, multimedia presentations, integrated software activities and the use of the Microsoft IT Academy. Students work individually and in groups to explore computer concepts, operating systems, networks, telecommunications, and emerging technologies. Keyboarding instruction will be a component of this course based on student need. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students discover the roles of business in the free enterprise system and the global economy. Basic financial concepts of banking, insurance, credit, inheritance, taxation, and investments are investigated to provide a strong background as students prepare to make sound decisions as consumers, wage earners, and citizens. The real-world impact of technology, effective communication, and interpersonal skills is evident throughout the course. </t>
+  </si>
+  <si>
+    <t>Students engage in scientific inquiry through lab work as they explore biological processes. All class and laboratory activities focus on life processes that occur within organisms. Major topics of study include molecular biology, cells, genetics, organisms, evolution and ecology. Parents have the option of withdrawing their child from any or all topics included in the state-mandated Family Life Education portion.</t>
+  </si>
+  <si>
+    <t>In comparison to Biology 1, students will investigate some topics at a deeper level including biotechnology, health and environmental issues. Students will be involved in an externally-moderated experimental/research project, either independently or in teams.</t>
+  </si>
+  <si>
+    <t>Students explore career fields in electricity and electronics. The course includes information on electrical and electronic theory and applications, computer-aided instruction and circuit simulation, components, circuitry troubleshooting, use of test instruments and lab training devices, consumer information, and career opportunities.</t>
+  </si>
+  <si>
+    <t>This is the first of a two-year, chronologically and thematically organized study of world history and geography. In this first year, students study the world from ancient times to 1500 CE. The course highlights relationships between the geography and history of Europe, Africa, Asia, and Latin America.</t>
+  </si>
+  <si>
+    <t>In comparison to World History and Geography 1, students will investigate some topics at a deeper level. Students are encouraged to think independently while developing group process skills.</t>
   </si>
 </sst>
 </file>
@@ -556,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -565,6 +598,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -878,116 +917,185 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="6" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D11" s="5" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="D13" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D15" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D16" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="D17" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="D18" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D19" s="5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="D20" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="D21" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="D22" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="D23" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="D24" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="D25" s="5" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -1413,82 +1521,97 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D99" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D100" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D101" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D102" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D103" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>109</v>
       </c>

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="177">
   <si>
     <t>English 9</t>
   </si>
@@ -537,6 +537,24 @@
   </si>
   <si>
     <t>In comparison to World History and Geography 1, students will investigate some topics at a deeper level. Students are encouraged to think independently while developing group process skills.</t>
+  </si>
+  <si>
+    <t>In Journalism 1 students learn the history and language of journalism; develop communication skills in writing, designing and editing for a variety of media; understand news and the process of publication; and become more critical readers and viewers of mass media.</t>
+  </si>
+  <si>
+    <t>In Photojournalism 1, students learn the principles of interviewing, copywriting, photography, layout, and design. Students will use publishing software to create pages for the school's yearbook. This course requires some after school time. This course requires an application and approval by instructor.</t>
+  </si>
+  <si>
+    <t>This course provides students an opportunity for additional writing instruction beyond the standard English program. Experimentation with many forms of writing is encouraged, with an emphasis on poetry, short stories, plays, and all forms of descriptive writing.</t>
+  </si>
+  <si>
+    <t>This course involves the study of classic and award-winning films. Students critique both the artistic and technical merits of the films. Students will produce short films each semester.</t>
+  </si>
+  <si>
+    <t>Students will research the current topics and write cases both affirming and negating the resolutions. Students will also take part in regular in-class mock debates. This class can be used as preparation time for participation in the Woodson Debate team. Participation in at least one evening or Saturday debate event is required.</t>
+  </si>
+  <si>
+    <t>Students will be familiarized with some of the major forensic events, including Original Oratory, Dramatic Interpretation, Impromptu speaking, and Extemporaneous speaking. This class can be used as prep time for participation in the WTW Forensics (Speech) team. Participation in at least one evening or Saturday event is required.</t>
   </si>
 </sst>
 </file>
@@ -888,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1260,9 @@
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="D50" s="5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -1252,16 +1273,25 @@
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D52" s="5" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D53" s="5" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="D54" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
@@ -1272,10 +1302,16 @@
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="D56" s="5" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1358894\Documents\GitHub\Poole-Shedoole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1568630\Desktop\Poole-Shedoole\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -904,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:BT169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BS2" sqref="BS2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -915,896 +915,1628 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BS1" s="2">
+        <f>BT1/142</f>
+        <v>0.41549295774647887</v>
+      </c>
+      <c r="BT1" s="2">
+        <f>SUM(BT2:BT169)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT2" s="2">
+        <f>IF(D1="", 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT3" s="2">
+        <f t="shared" ref="BT3:BT66" si="0">IF(D2="", 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT24" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT26" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT28" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT30" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT35" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT36" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT37" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT44" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT50" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT51" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT52" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT53" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT54" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT55" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT56" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT57" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT58" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D59" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT59" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D60" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT60" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT61" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D62" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT62" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D63" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT63" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT64" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT65" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D66" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT66" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT67" s="2">
+        <f t="shared" ref="BT67:BT130" si="1">IF(D66="", 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D68" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT68" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D69" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT69" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D70" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT70" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D71" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT71" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D72" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT72" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT73" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT74" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT77" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT78" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT79" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT80" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT81" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT82" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT83" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT84" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT85" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT86" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT87" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT88" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT89" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT90" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT91" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT92" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT93" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT94" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT95" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT96" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT98" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT99" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT100" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT101" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT102" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT103" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT104" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT105" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT106" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT107" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT108" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT109" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT110" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT111" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT112" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT113" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT114" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT115" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT116" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT117" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT118" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT119" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT120" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT121" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT122" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT123" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT124" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT125" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT126" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT127" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT128" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT129" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT130" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT131" s="2">
+        <f t="shared" ref="BT131:BT169" si="2">IF(D130="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT132" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT133" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT134" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT135" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT136" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT137" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT138" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT139" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT140" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT141" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT142" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>140</v>
+      </c>
+      <c r="BT143" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BT144" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT145" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT146" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT147" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT148" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT149" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT150" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT151" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT152" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT153" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT154" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT155" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT156" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT157" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT158" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT159" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT160" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT161" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT162" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT163" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT164" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT165" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT166" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT167" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT168" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT169" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
   <si>
     <t>English 9</t>
   </si>
@@ -555,6 +555,42 @@
   </si>
   <si>
     <t>Students will be familiarized with some of the major forensic events, including Original Oratory, Dramatic Interpretation, Impromptu speaking, and Extemporaneous speaking. This class can be used as prep time for participation in the WTW Forensics (Speech) team. Participation in at least one evening or Saturday event is required.</t>
+  </si>
+  <si>
+    <t>This is an adapted curriculum elective geared to students needing intensive support. Instruction is very concrete with extensive physical modeling and assistance. The course will identify work-related abilities, provide training and work skills, and prepare students for post-secondary participation in community-based worksites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course is designed to support instruction in the science content area; does not require SOL testing. Instruction is individualized based on needs identified in the IEP to help students gain a basic content vocabulary, knowledge and skills and designed to be taught at the learning pace of the individual students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This course is designed to support instruction in the English content area; does not require SOL testing. Instruction is individualized based on needs identified in the IEP to help students gain a basic content vocabulary, knowledge and skills and designed to be taught at the learning pace of the individual students. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students develop the ability to communicate about themselves and their immediate environment using simple sentences containing basic language structures. This communication is evidenced in signing, receiving signs and non-manual gestures, and reading. Students begin to explore and study the themes of Personal and Family Life, School Life, Social Life, and Community Life. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students continue to develop proficiency in American Sign Language. They learn to function in real-life situations using more complex language structures and a wider range of vocabulary. Students continue to explore as they study the themes of Home Life, Student Life, Leisure Time, and Vacation and Travel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students continue to develop and refine their proficiency in American Sign Language. They communicate using more complex language structures on a variety of topics, moving from concrete to more abstract concepts. Students gain a deeper understanding of the world around them while studying Rights and Responsibilities, Future Plans and Choices, Teen Culture, Environment, and Humanities. </t>
+  </si>
+  <si>
+    <t>Foundations of World History/Geography is a one-credit elective course designed to support in the World History content area; does not require SOL testing. Instruction is individualized based on needs identified in the IEP to help students gain a basic content vocabulary, knowledge and skills and designed to be taught at the learning pace of the individual students.</t>
+  </si>
+  <si>
+    <t>This comprehensive individualized program is designed to prepare students for a style of living that will require a minimum of dependence on family. The course is geared to meet the needs of the students as they prepare to enter employment and emphasizes developing interpersonal skills, following directions, working independently, completing a task, and developing self-advocacy and other community living skills.</t>
+  </si>
+  <si>
+    <t>This course, offered at Davis and Pulley Centers and STEP, is designed to teach students with disabilities skills for independent living.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explore a variety of exciting opportunities and materials to inform the artmaking process. Learn to think conceptually and realize potential as a creative and critical thinker in order to meet the challenges of 21st century living. Explore personal interests while developing skills in the areas of drawing, painting, printmaking, ceramics, sculpture, and digital media. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theatre Arts 1 provides students with a survey of the theatre arts, allowing student’s opportunities to experience and appreciate dramatic literature, and participate in the creative processes of performance and production. This course emphasizes skill development and provides theatrical opportunities that enable students to determine personal areas of interest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students are provided the opportunity to sample a variety of musical experiences in a non-performing music class. Course content includes beginning guitar and class piano experience, as well as various modules designed to assist students in developing music reading and composing skills. </t>
   </si>
 </sst>
 </file>
@@ -906,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="M144" sqref="M144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1145,21 +1181,33 @@
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="D32" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -1197,26 +1245,41 @@
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D39" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="D42" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
@@ -1652,159 +1715,213 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D126" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D127" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D128" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D129" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D130" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D131" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D132" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D133" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D134" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D135" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D136" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D137" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D138" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D139" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D140" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D141" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D142" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>140</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1358894\Documents\GitHub\Poole-Shedoole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1568630\Desktop\Poole-Shedoole\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -940,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:BT719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="M144" sqref="M144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -951,977 +951,5009 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BS1" s="2">
+        <f>BT1/142</f>
+        <v>0.59859154929577463</v>
+      </c>
+      <c r="BT1" s="2">
+        <f>SUM(BT2:BT719)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT2" s="2">
+        <f t="shared" ref="BT2:BT65" si="0">IF(D2="", 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT3" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT6" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT8" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT9" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT10" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT11" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT13" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT16" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT17" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT24" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT25" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT29" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT30" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D31" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT31" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT32" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT33" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT34" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT35" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT36" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT37" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D38" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT38" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT39" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT40" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D41" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT41" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D42" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT42" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT43" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT44" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT45" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT47" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT48" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT49" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT50" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT51" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT52" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT53" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT54" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT55" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT56" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT57" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D58" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT58" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D59" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT59" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D60" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT60" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT61" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D62" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT62" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D63" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT63" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT64" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D65" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT65" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D66" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT66" s="2">
+        <f t="shared" ref="BT66:BT129" si="1">IF(D66="", 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT67" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D68" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT68" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
       <c r="D69" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT69" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D70" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT70" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D71" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT71" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D72" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT72" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D73" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT73" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT74" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT77" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT78" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT79" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT80" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT81" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT82" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT83" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT84" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT85" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT86" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT87" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT88" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT89" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT90" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT91" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT92" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT93" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT94" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="BT95" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT96" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT97" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT98" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT99" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT100" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT101" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT102" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT103" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT104" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT105" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT106" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT107" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT108" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT109" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT110" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT111" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT112" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT113" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT114" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT115" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT116" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT117" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT118" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT119" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT120" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT121" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT122" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT123" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT124" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT125" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT126" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT127" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT128" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT129" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT130" s="2">
+        <f t="shared" ref="BT130:BT193" si="2">IF(D130="", 0, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT131" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT132" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT133" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT134" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT135" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT136" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT137" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT138" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT139" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT140" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT141" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="BT142" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>188</v>
+      </c>
+      <c r="BT143" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="BT144" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT145" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT146" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT147" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT148" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT149" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT150" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT151" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT152" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT153" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT154" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT155" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT156" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT157" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT158" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT159" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT160" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT161" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT162" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT163" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT164" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT165" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT166" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT167" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT168" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT169" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT170" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT171" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT172" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT173" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT174" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT175" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT176" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT177" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT178" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT179" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT180" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT181" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT182" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT183" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT184" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT185" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT186" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT187" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT188" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT189" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT190" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT191" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT192" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT193" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT194" s="2">
+        <f t="shared" ref="BT194:BT257" si="3">IF(D194="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT195" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT196" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT197" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT198" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT199" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT200" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT201" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT202" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT203" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT204" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT205" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT206" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT207" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT208" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT209" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT210" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT211" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT212" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT213" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT214" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT215" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT216" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT217" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT218" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT219" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT220" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT221" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT222" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT223" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT224" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT225" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT226" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT227" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT228" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT229" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT230" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT231" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT232" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT233" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT234" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT235" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT236" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT237" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT238" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT239" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT240" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT241" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT242" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT243" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT244" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT245" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT246" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT247" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT248" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT249" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT250" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT251" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT252" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT253" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT254" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT255" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT256" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT257" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT258" s="2">
+        <f t="shared" ref="BT258:BT321" si="4">IF(D258="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT259" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT260" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT261" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT262" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT263" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT264" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT265" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT266" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT267" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT268" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT269" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT270" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT271" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT272" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT273" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT274" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT275" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT276" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT277" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT278" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT279" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT280" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT281" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT282" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT283" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT284" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT285" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT286" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT287" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT288" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT289" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT290" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT291" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT292" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT293" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT294" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT295" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT296" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT297" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT298" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT299" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT300" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT301" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT302" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT303" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT304" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT305" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT306" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT307" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT308" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT309" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT310" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT311" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT312" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT313" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT314" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT315" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT316" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT317" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT318" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT319" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT320" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT321" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT322" s="2">
+        <f t="shared" ref="BT322:BT385" si="5">IF(D322="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT323" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT324" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT325" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT326" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT327" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT328" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT329" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT330" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT331" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT332" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT333" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT334" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT335" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT336" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT337" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT338" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT339" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT340" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT341" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT342" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT343" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT344" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT345" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT346" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT347" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT348" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT349" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT350" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT351" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT352" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT353" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT354" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT355" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT356" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT357" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT358" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT359" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT360" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT361" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT362" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT363" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT364" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT365" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT366" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT367" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT368" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT369" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT370" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT371" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT372" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT373" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT374" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT375" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT376" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT377" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT378" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT379" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT380" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT381" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT382" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT383" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT384" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT385" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT386" s="2">
+        <f t="shared" ref="BT386:BT449" si="6">IF(D386="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT387" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT388" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT389" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT390" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT391" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT392" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT393" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT394" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT395" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT396" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT397" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT398" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT399" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT400" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT401" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT402" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT403" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT404" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT405" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT406" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT407" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT408" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT409" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT410" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT411" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT412" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT413" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT414" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT415" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT416" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT417" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT418" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT419" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT420" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT421" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT422" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT423" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT424" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT425" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT426" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT427" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT428" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT429" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT430" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT431" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT432" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT433" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT434" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT435" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT436" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT437" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT438" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT439" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT440" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT441" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT442" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT443" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT444" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT445" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT446" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT447" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT448" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT449" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT450" s="2">
+        <f t="shared" ref="BT450:BT513" si="7">IF(D450="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT451" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT452" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT453" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT454" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT455" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT456" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT457" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT458" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT459" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT460" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT461" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT462" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT463" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT464" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT465" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT466" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT467" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT468" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT469" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT470" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT471" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT472" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT473" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT474" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT475" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT476" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT477" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT478" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT479" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT480" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT481" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT482" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT483" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT484" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT485" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT486" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT487" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT488" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT489" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT490" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT491" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT492" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT493" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT494" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT495" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT496" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT497" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT498" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT499" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT500" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT501" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT502" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT503" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT504" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT505" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT506" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT507" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT508" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT509" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT510" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT511" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT512" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT513" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT514" s="2">
+        <f t="shared" ref="BT514:BT577" si="8">IF(D514="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT515" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT516" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT517" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT518" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT519" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT520" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT521" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT522" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT523" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT524" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT525" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT526" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT527" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT528" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT529" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT530" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT531" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT532" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT533" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT534" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT535" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT536" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT537" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT538" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT539" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT540" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT541" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT542" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT543" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT544" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT545" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT546" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT547" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT548" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT549" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT550" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT551" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT552" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT553" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT554" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT555" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT556" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT557" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT558" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT559" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT560" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT561" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT562" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT563" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT564" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT565" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT566" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT567" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT568" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT569" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT570" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT571" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT572" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT573" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT574" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT575" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT576" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT577" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT578" s="2">
+        <f t="shared" ref="BT578:BT641" si="9">IF(D578="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT579" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT580" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT581" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT582" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT583" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT584" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT585" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT586" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT587" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT588" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT589" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT590" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT591" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT592" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT593" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT594" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT595" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT596" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT597" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT598" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT599" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT600" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT601" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT602" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT603" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT604" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT605" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT606" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT607" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT608" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT609" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT610" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT611" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT612" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT613" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT614" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT615" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT616" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT617" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT618" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT619" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT620" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT621" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT622" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT623" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT624" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT625" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT626" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT627" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT628" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT629" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT630" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT631" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT632" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT633" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT634" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT635" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT636" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT637" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT638" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT639" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT640" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT641" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT642" s="2">
+        <f t="shared" ref="BT642:BT705" si="10">IF(D642="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT643" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT644" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT645" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT646" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT647" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT648" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT649" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT650" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT651" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT652" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT653" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT654" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT655" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT656" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT657" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT658" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT659" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT660" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT661" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT662" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT663" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT664" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT665" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT666" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT667" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT668" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT669" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT670" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT671" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT672" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT673" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT674" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT675" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT676" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT677" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT678" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT679" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT680" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT681" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT682" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT683" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT684" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT685" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT686" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT687" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT688" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT689" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT690" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT691" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT692" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT693" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT694" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT695" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT696" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT697" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT698" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT699" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT700" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT701" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT702" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT703" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT704" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT705" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT706" s="2">
+        <f t="shared" ref="BT706:BT719" si="11">IF(D706="", 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT707" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT708" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT709" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT710" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT711" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT712" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT713" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT714" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT715" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT716" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT717" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT718" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="72:72" x14ac:dyDescent="0.25">
+      <c r="BT719" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="193">
   <si>
     <t>English 9</t>
   </si>
@@ -591,13 +591,48 @@
   </si>
   <si>
     <t xml:space="preserve">Students are provided the opportunity to sample a variety of musical experiences in a non-performing music class. Course content includes beginning guitar and class piano experience, as well as various modules designed to assist students in developing music reading and composing skills. </t>
+  </si>
+  <si>
+    <t>This course is designed to provide direct, explicit and intensive reading instruction to students who are reading two or more years below grade level. Basic objectives of this reading course are focused on closing the gap between the students’ present level of performance and the level of performance needed to successfully access the general curriculum.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> For 10</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> graders only</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">course emphasizes the reading comprehension skills necessary for understanding the content of mathematics, science, social studies, and English, and the communication skills appropriate across disciplines.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This course extends students' knowledge and understanding of the real number system and its properties through the study of variables, expressions, equations, inequalities, and analysis of data derived from real-world phenomena. Emphasis is placed on making connections in algebra to geometry and statistics. Calculator and computer technologies will be used as tools wherever appropriate.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -622,6 +657,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -643,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,6 +708,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="M144" sqref="M144"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1684,45 +1737,72 @@
       <c r="A106" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>105</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>108</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="D112" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="D113" s="7" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>111</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
   <si>
     <t>English 9</t>
   </si>
@@ -638,6 +638,45 @@
   </si>
   <si>
     <t>Instruction in economics and personal finance prepares students to function effectively as consumers, savers, investors, entrepreneurs, and active citizens. students learn how economies and markets operate and how the United States' economy is interconnected with the global economy. On a personal level, students learn that their own human capital (knowledge and skills) is their most valuable resource.</t>
+  </si>
+  <si>
+    <t>Students explore various areas of technical theatre such as lighting, costumes, sound, scenery, makeup, properties, and theatre management. An analysis of dramatic literature leads students to an understanding of the design and production process.</t>
+  </si>
+  <si>
+    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of intermediate level technical and ensemble skills necessary for performance. Marching band techniques and performances may be included.</t>
+  </si>
+  <si>
+    <t>Students in this course form the representative performing band for the school. Emphasis is placed on the sequential development of advanced technical skills and on the study of related literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Participation in marching band may be required for wind and/or percussion students. The percussion ensemble class is designed to meet specific needs of percussionists. Content includes study of the appropriate ensemble literature, and rehearsal and performance techniques from the various areas of musical composition.</t>
+  </si>
+  <si>
+    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of intermediate level technical and ensemble skills necessary for performance. Students must meet both the school day and outside of the school day participation requirements.</t>
+  </si>
+  <si>
+    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of advanced level technical and ensemble skills necessary for performance. Students must meet both the school day and outside of the school day participation requirements</t>
+  </si>
+  <si>
+    <t>Students learn the fundamentals of guitar. Guitar instruction emphasizes basic technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
+  </si>
+  <si>
+    <t>Students continue to develop skills on the guitar. Guitar instruction emphasizes intermediate technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
+  </si>
+  <si>
+    <t>Students continue to develop skills on the guitar even further. Guitar instruction emphasizes intermediate technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
+  </si>
+  <si>
+    <t>Intermediate level women's chorus will provide for the continued study of correct vocal production, sight-singing and development of musicianship through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Students will participate in a chorus of women's voices. Emphasis is placed upon correct vocal performance techniques and sight-singing through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Students will participate in a chorus of men's voices. Emphasis is placed upon correct vocal performance techniques and sight-singing through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Emphasis is placed on developing and understanding basic music theory skills. Course content includes recognizing and notating: all major and minor scales, rhythms in simple and compound meters, and triadic chord structures. Composition skills in standard notation of simple melodies, with accompanying chords and keyboard performance of simple tunes.</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1047,7 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1605,89 +1644,128 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D83" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D84" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D85" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D86" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D87" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D88" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D90" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D91" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D94" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D95" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>94</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">

--- a/Course Description Sample Sheet.xlsx
+++ b/Course Description Sample Sheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="234">
   <si>
     <t>English 9</t>
   </si>
@@ -594,6 +594,117 @@
   </si>
   <si>
     <t>This course is designed to provide direct, explicit and intensive reading instruction to students who are reading two or more years below grade level. Basic objectives of this reading course are focused on closing the gap between the students’ present level of performance and the level of performance needed to successfully access the general curriculum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course emphasizes the reading comprehension skills necessary for understanding the content of mathematics, science, social studies, and English, and the communication skills appropriate across disciplines.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This course extends students' knowledge and understanding of the real number system and its properties through the study of variables, expressions, equations, inequalities, and analysis of data derived from real-world phenomena. Emphasis is placed on making connections in algebra to geometry and statistics. Calculator and computer technologies will be used as tools wherever appropriate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The course is designed for WIDA ELP Level 1 &amp; 2 students with gaps in mathematics to support the development of the mathematics and language skills necessary for success in Algebra 1. Problem solving, communication, concept representation, and connections among mathematical ideas are presented in a hands-on learning environment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This elective course is designed to provide support English Learners in core curricular areas and to provide direct instruction in specific learning strategies, study skills, time management, organization, and self-advocacy skills to develop the habits necessary for academic success. In addition, this course will teach strategies to enhance English language development in the four language domains of reading, writing, listening and speaking </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This course is designed to provide instruction to enhance personal development and interpersonal skills for students with disabilities. In addition, this course will provide social and/or emotional support in order to progress in the general education curriculum.  The areas of instruction for this course include peer relations, self-management, academic skills, compliance skills, and assertion skills</t>
+  </si>
+  <si>
+    <t>Instruction in economics and personal finance prepares students to function effectively as consumers, savers, investors, entrepreneurs, and active citizens. students learn how economies and markets operate and how the United States' economy is interconnected with the global economy. On a personal level, students learn that their own human capital (knowledge and skills) is their most valuable resource.</t>
+  </si>
+  <si>
+    <t>Students explore various areas of technical theatre such as lighting, costumes, sound, scenery, makeup, properties, and theatre management. An analysis of dramatic literature leads students to an understanding of the design and production process.</t>
+  </si>
+  <si>
+    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of intermediate level technical and ensemble skills necessary for performance. Marching band techniques and performances may be included.</t>
+  </si>
+  <si>
+    <t>Students in this course form the representative performing band for the school. Emphasis is placed on the sequential development of advanced technical skills and on the study of related literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Participation in marching band may be required for wind and/or percussion students. The percussion ensemble class is designed to meet specific needs of percussionists. Content includes study of the appropriate ensemble literature, and rehearsal and performance techniques from the various areas of musical composition.</t>
+  </si>
+  <si>
+    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of intermediate level technical and ensemble skills necessary for performance. Students must meet both the school day and outside of the school day participation requirements.</t>
+  </si>
+  <si>
+    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of advanced level technical and ensemble skills necessary for performance. Students must meet both the school day and outside of the school day participation requirements</t>
+  </si>
+  <si>
+    <t>Students learn the fundamentals of guitar. Guitar instruction emphasizes basic technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
+  </si>
+  <si>
+    <t>Students continue to develop skills on the guitar. Guitar instruction emphasizes intermediate technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
+  </si>
+  <si>
+    <t>Students continue to develop skills on the guitar even further. Guitar instruction emphasizes intermediate technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
+  </si>
+  <si>
+    <t>Intermediate level women's chorus will provide for the continued study of correct vocal production, sight-singing and development of musicianship through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Students will participate in a chorus of women's voices. Emphasis is placed upon correct vocal performance techniques and sight-singing through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Students will participate in a chorus of men's voices. Emphasis is placed upon correct vocal performance techniques and sight-singing through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
+  </si>
+  <si>
+    <t>Emphasis is placed on developing and understanding basic music theory skills. Course content includes recognizing and notating: all major and minor scales, rhythms in simple and compound meters, and triadic chord structures. Composition skills in standard notation of simple melodies, with accompanying chords and keyboard performance of simple tunes.</t>
+  </si>
+  <si>
+    <t>Students study the world from 1500 CE through the present. The course weaves together the skills and content of both history and geography so that students may learn how both affect the world around them.</t>
+  </si>
+  <si>
+    <t>Students study the world from 1500 CE through the present. Students continue to examine the relationship among social, economic, and geopolitical developments across time and place</t>
+  </si>
+  <si>
+    <t>Students engage in listening, speaking, reading and writing English through an integrated language arts and content curriculum.</t>
+  </si>
+  <si>
+    <t>This course is taken concurrently with Transitional English 9 or English 9. ESOL and English teachers work together to provide a comprehensive program based on the FCPS English 9 POS</t>
+  </si>
+  <si>
+    <t>Transitional English 9 is intended to be taken concurrently with English for Speakers of other Languages (ESOL) Level 4 to serve as a transition from ESOL to the mainstream English program</t>
+  </si>
+  <si>
+    <t>The purpose of this course is to provide instruction of foundational mathematics skills to special education students who are functioning more than two years below grade level in mathematics.</t>
+  </si>
+  <si>
+    <t>This elective course is designed to provide support English Learners in core curricular areas and to provide direct instruction in specific learning strategies, study skills, time management, organization, and self-advocacy skills to develop the habits necessary for academic success.</t>
+  </si>
+  <si>
+    <t>This course is designed to provide direct, explicit and intensive reading instruction to students who are reading two or more years below grade level</t>
+  </si>
+  <si>
+    <t>Literacy LAB (Literacy Access Bridge) 1 provides students who are reading below expected proficiency with direct instruction of content area reading and writing skills.</t>
+  </si>
+  <si>
+    <t>Students gain knowledge and skills in a variety of individual, dual, and team sports/activities to develop competencies to promote an active lifestyle.</t>
+  </si>
+  <si>
+    <t>The adapted physical education elective course builds on the knowledge and skills acquired in 9th and 10th grade and is designed for students who have IEPs indicating adapted physical education services in a special education setting</t>
+  </si>
+  <si>
+    <t>Students will study and apply concepts related to medical professions, anatomy and physiology of skeletal and muscular systems, kinesiology, types of injuries, injury prevention and nutrition.</t>
+  </si>
+  <si>
+    <t>Doesn’t Exist for 9th graders</t>
+  </si>
+  <si>
+    <t>Provides students with a survey of the theatre arts, emphasizes skill development, and provides theatrical opportunities that enable students to determine personal areas of interest.</t>
+  </si>
+  <si>
+    <t>Develop skills and techniques in the use of materials and equipment to create 3D artworks that may include sculpture, ceramics, architecture, and other 3D forms.</t>
+  </si>
+  <si>
+    <t>Explore and practice black and white photographic processes and digital photographic processes to produce meaningful photographs that express ideas about experiences and observations of the world.</t>
+  </si>
+  <si>
+    <t>Create personally expressive, original artworks using technology. Develop expertise in the use of computers, scanners, and digital cameras for artmaking. Students will use Adobe Photoshop, Adobe Illustrator, Bryce 3D, and Adobe Flash.</t>
+  </si>
+  <si>
+    <t>Explore personal interests while developing skills in the areas of drawing, painting, printmaking, ceramics, sculpture, and digital media. Course content includes art production, art appreciation, and studies in visual culture.</t>
   </si>
   <si>
     <r>
@@ -605,8 +716,8 @@
         <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
       </rPr>
       <t>th</t>
     </r>
@@ -615,75 +726,36 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Comic Sans MS"/>
+        <family val="4"/>
       </rPr>
       <t xml:space="preserve"> graders only</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">course emphasizes the reading comprehension skills necessary for understanding the content of mathematics, science, social studies, and English, and the communication skills appropriate across disciplines.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This course extends students' knowledge and understanding of the real number system and its properties through the study of variables, expressions, equations, inequalities, and analysis of data derived from real-world phenomena. Emphasis is placed on making connections in algebra to geometry and statistics. Calculator and computer technologies will be used as tools wherever appropriate.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The course is designed for WIDA ELP Level 1 &amp; 2 students with gaps in mathematics to support the development of the mathematics and language skills necessary for success in Algebra 1. Problem solving, communication, concept representation, and connections among mathematical ideas are presented in a hands-on learning environment. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This elective course is designed to provide support English Learners in core curricular areas and to provide direct instruction in specific learning strategies, study skills, time management, organization, and self-advocacy skills to develop the habits necessary for academic success. In addition, this course will teach strategies to enhance English language development in the four language domains of reading, writing, listening and speaking </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> This course is designed to provide instruction to enhance personal development and interpersonal skills for students with disabilities. In addition, this course will provide social and/or emotional support in order to progress in the general education curriculum.  The areas of instruction for this course include peer relations, self-management, academic skills, compliance skills, and assertion skills</t>
-  </si>
-  <si>
-    <t>Instruction in economics and personal finance prepares students to function effectively as consumers, savers, investors, entrepreneurs, and active citizens. students learn how economies and markets operate and how the United States' economy is interconnected with the global economy. On a personal level, students learn that their own human capital (knowledge and skills) is their most valuable resource.</t>
-  </si>
-  <si>
-    <t>Students explore various areas of technical theatre such as lighting, costumes, sound, scenery, makeup, properties, and theatre management. An analysis of dramatic literature leads students to an understanding of the design and production process.</t>
-  </si>
-  <si>
-    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of intermediate level technical and ensemble skills necessary for performance. Marching band techniques and performances may be included.</t>
-  </si>
-  <si>
-    <t>Students in this course form the representative performing band for the school. Emphasis is placed on the sequential development of advanced technical skills and on the study of related literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
-  </si>
-  <si>
-    <t>Participation in marching band may be required for wind and/or percussion students. The percussion ensemble class is designed to meet specific needs of percussionists. Content includes study of the appropriate ensemble literature, and rehearsal and performance techniques from the various areas of musical composition.</t>
-  </si>
-  <si>
-    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of intermediate level technical and ensemble skills necessary for performance. Students must meet both the school day and outside of the school day participation requirements.</t>
-  </si>
-  <si>
-    <t>Students continue developing as individual musicians and as members of a musical group. Emphasis is placed on the development of advanced level technical and ensemble skills necessary for performance. Students must meet both the school day and outside of the school day participation requirements</t>
-  </si>
-  <si>
-    <t>Students learn the fundamentals of guitar. Guitar instruction emphasizes basic technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
-  </si>
-  <si>
-    <t>Students continue to develop skills on the guitar. Guitar instruction emphasizes intermediate technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
-  </si>
-  <si>
-    <t>Students continue to develop skills on the guitar even further. Guitar instruction emphasizes intermediate technique, reading, progressions, and music theory. Instructional literature is selected from classical and contemporary repertoire.</t>
-  </si>
-  <si>
-    <t>Intermediate level women's chorus will provide for the continued study of correct vocal production, sight-singing and development of musicianship through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
-  </si>
-  <si>
-    <t>Students will participate in a chorus of women's voices. Emphasis is placed upon correct vocal performance techniques and sight-singing through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
-  </si>
-  <si>
-    <t>Students will participate in a chorus of men's voices. Emphasis is placed upon correct vocal performance techniques and sight-singing through the study of appropriate choral literature. Based on successful completion of sequential concepts for each level, students will continue as specified in course level.</t>
-  </si>
-  <si>
-    <t>Emphasis is placed on developing and understanding basic music theory skills. Course content includes recognizing and notating: all major and minor scales, rhythms in simple and compound meters, and triadic chord structures. Composition skills in standard notation of simple melodies, with accompanying chords and keyboard performance of simple tunes.</t>
+    <t>In this class the students will learn skills relating to Chamber Ensemble. By audition only.</t>
+  </si>
+  <si>
+    <t>In this class the students will learn skills relating to Jazz Ensemble. By audition only.</t>
+  </si>
+  <si>
+    <t>Students will sample and study a variety of music.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students are taught to draw with technically acceptable stratgies. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students learn a vaeriety of recipes and techniques for cooking food. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first part of Geometry. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,34 +766,40 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
     <font>
       <i/>
       <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -749,14 +827,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -764,6 +839,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,15 +1123,15 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>141</v>
       </c>
@@ -1063,7 +1139,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
@@ -1071,759 +1147,831 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="D27" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="6" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="D98" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="6" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>103</v>
       </c>
@@ -1831,296 +1979,299 @@
         <v>189</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D113" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D116" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D117" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D118" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D121" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D122" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D123" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D125" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="6" t="s">
         <v>188</v>
       </c>
     </row>
